--- a/database/industries/darou/dejaber/product/yearly.xlsx
+++ b/database/industries/darou/dejaber/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E3463-7FB6-4731-8202-885DE6A78E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +318,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -329,7 +330,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -376,6 +377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -411,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,8 +597,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,8 +752,8 @@
       <c r="E11" s="11">
         <v>938880</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
+      <c r="F11" s="11">
+        <v>2347080</v>
       </c>
       <c r="G11" s="11">
         <v>2259120</v>
@@ -741,8 +776,8 @@
       <c r="E12" s="9">
         <v>4306281</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
+      <c r="F12" s="9">
+        <v>5797365</v>
       </c>
       <c r="G12" s="9">
         <v>5371381</v>
@@ -813,8 +848,8 @@
       <c r="E15" s="11">
         <v>3759417</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>12</v>
+      <c r="F15" s="11">
+        <v>1696265</v>
       </c>
       <c r="G15" s="11">
         <v>2742777</v>
@@ -837,8 +872,8 @@
       <c r="E16" s="9">
         <v>129685580</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
+      <c r="F16" s="9">
+        <v>131179465</v>
       </c>
       <c r="G16" s="9">
         <v>199281000</v>
@@ -861,8 +896,8 @@
       <c r="E17" s="11">
         <v>67131770</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>12</v>
+      <c r="F17" s="11">
+        <v>45601003</v>
       </c>
       <c r="G17" s="11">
         <v>22135791</v>
@@ -979,8 +1014,8 @@
       <c r="E22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
+      <c r="F22" s="9">
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>2352877</v>
@@ -1026,7 +1061,7 @@
         <v>205821928</v>
       </c>
       <c r="F24" s="13">
-        <v>0</v>
+        <v>186621178</v>
       </c>
       <c r="G24" s="13">
         <v>234142946</v>
@@ -1104,21 +1139,19 @@
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>12</v>
@@ -1126,79 +1159,79 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11">
-        <v>1159677</v>
+      <c r="E31" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="11">
-        <v>2258910</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11">
-        <v>1524330</v>
-      </c>
-      <c r="I31" s="11">
-        <v>1102410</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>4101603</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>12</v>
+        <v>1159677</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2370530</v>
       </c>
       <c r="G32" s="9">
-        <v>5951917</v>
+        <v>2258910</v>
       </c>
       <c r="H32" s="9">
-        <v>4759002</v>
+        <v>1524330</v>
       </c>
       <c r="I32" s="9">
-        <v>5117592</v>
+        <v>1102410</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>12</v>
+      <c r="E33" s="11">
+        <v>4101603</v>
+      </c>
+      <c r="F33" s="11">
+        <v>5542134</v>
+      </c>
+      <c r="G33" s="11">
+        <v>5951917</v>
+      </c>
+      <c r="H33" s="11">
+        <v>4759002</v>
+      </c>
+      <c r="I33" s="11">
+        <v>5117592</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>11</v>
@@ -1222,110 +1255,110 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11">
-        <v>3669083</v>
+      <c r="E35" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="11">
-        <v>2554533</v>
-      </c>
-      <c r="H35" s="11">
-        <v>1350833</v>
-      </c>
-      <c r="I35" s="11">
-        <v>782959</v>
+      <c r="G35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>143773502</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>12</v>
+        <v>3669083</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1751923</v>
       </c>
       <c r="G36" s="9">
-        <v>203426820</v>
+        <v>2554533</v>
       </c>
       <c r="H36" s="9">
-        <v>158120730</v>
+        <v>1350833</v>
       </c>
       <c r="I36" s="9">
-        <v>302215674</v>
+        <v>782959</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>70965392</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>12</v>
+        <v>143773502</v>
+      </c>
+      <c r="F37" s="11">
+        <v>127925645</v>
       </c>
       <c r="G37" s="11">
-        <v>22841259</v>
+        <v>203426820</v>
       </c>
       <c r="H37" s="11">
-        <v>32326000</v>
+        <v>158120730</v>
       </c>
       <c r="I37" s="11">
-        <v>31215273</v>
+        <v>302215674</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
+      <c r="E38" s="9">
+        <v>70965392</v>
+      </c>
+      <c r="F38" s="9">
+        <v>45780987</v>
+      </c>
+      <c r="G38" s="9">
+        <v>22841259</v>
+      </c>
+      <c r="H38" s="9">
+        <v>32326000</v>
+      </c>
+      <c r="I38" s="9">
+        <v>31215273</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11">
-        <v>542</v>
+      <c r="E39" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>12</v>
@@ -1342,53 +1375,53 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>12</v>
+      <c r="E40" s="9">
+        <v>542</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
+      <c r="G40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>12</v>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>11</v>
@@ -1400,19 +1433,19 @@
       <c r="F42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
+      <c r="G42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>11</v>
@@ -1421,50 +1454,64 @@
       <c r="E43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>12</v>
+      <c r="F43" s="11">
+        <v>4221305</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
       </c>
       <c r="I43" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15">
         <v>223669799</v>
       </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
+      <c r="F45" s="15">
+        <v>187592524</v>
+      </c>
+      <c r="G45" s="15">
         <v>237033439</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="15">
         <v>198080895</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="15">
         <v>340433908</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
@@ -1486,405 +1533,405 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="9">
+      <c r="C51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="9">
+        <v>-6219</v>
+      </c>
+      <c r="G51" s="9">
         <v>-511</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H51" s="9">
         <v>-5585</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="I51" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11">
+      <c r="C52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
         <v>16383</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="11">
+      <c r="F52" s="11">
+        <v>50255</v>
+      </c>
+      <c r="G52" s="11">
         <v>65845</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H52" s="11">
         <v>48614</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I52" s="11">
         <v>51642</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9">
+      <c r="C53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9">
         <v>326333</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="9">
+      <c r="F53" s="9">
+        <v>509963</v>
+      </c>
+      <c r="G53" s="9">
         <v>668595</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H53" s="9">
         <v>1365370</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I53" s="9">
         <v>1545355</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11">
+      <c r="C56" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
         <v>96408</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="11">
+      <c r="F56" s="11">
+        <v>52146</v>
+      </c>
+      <c r="G56" s="11">
         <v>94459</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H56" s="11">
         <v>77621</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I56" s="11">
         <v>51224</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9">
+      <c r="C57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9">
         <v>286526</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="9">
+      <c r="F57" s="9">
+        <v>394859</v>
+      </c>
+      <c r="G57" s="9">
         <v>738954</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H57" s="9">
         <v>744919</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I57" s="9">
         <v>2209093</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11">
+      <c r="C58" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
         <v>1566996</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="F58" s="11">
+        <v>1442470</v>
+      </c>
+      <c r="G58" s="11">
         <v>797680</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H58" s="11">
         <v>1452546</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I58" s="11">
         <v>1660685</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
+      <c r="C59" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11">
+      <c r="C60" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11">
         <v>11400</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
+      <c r="F60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="9">
+      <c r="C61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="9">
+        <v>-382855</v>
+      </c>
+      <c r="G61" s="9">
         <v>-343536</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H61" s="9">
         <v>-459027</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I61" s="9">
         <v>-515603</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="9">
+        <v>21439</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="11">
+      <c r="C64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="11">
         <v>88873</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="12" t="s">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13">
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13">
         <v>2304046</v>
       </c>
-      <c r="F64" s="13">
-        <v>0</v>
-      </c>
-      <c r="G64" s="13">
+      <c r="F65" s="13">
+        <v>2082058</v>
+      </c>
+      <c r="G65" s="13">
         <v>2021486</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>3224458</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>5091269</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
@@ -1906,383 +1953,383 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="s">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I69" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="9">
-        <v>0</v>
-      </c>
-      <c r="H70" s="9">
-        <v>0</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="9">
+        <v>0</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11">
+      <c r="D72" s="11"/>
+      <c r="E72" s="11">
         <v>14127</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="11">
+      <c r="F72" s="11">
+        <v>21200</v>
+      </c>
+      <c r="G72" s="11">
         <v>29149</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H72" s="11">
         <v>31892</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I72" s="11">
         <v>46845</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9">
+      <c r="D73" s="9"/>
+      <c r="E73" s="9">
         <v>79562</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="9">
+      <c r="F73" s="9">
+        <v>92016</v>
+      </c>
+      <c r="G73" s="9">
         <v>112333</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H73" s="9">
         <v>286903</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I73" s="9">
         <v>301969</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
+      <c r="D74" s="11"/>
+      <c r="E74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11">
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
         <v>26276</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="11">
+      <c r="F76" s="11">
+        <v>29765</v>
+      </c>
+      <c r="G76" s="11">
         <v>36977</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H76" s="11">
         <v>57462</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I76" s="11">
         <v>65424</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9">
         <v>1993</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="9">
+      <c r="F77" s="9">
+        <v>3087</v>
+      </c>
+      <c r="G77" s="9">
         <v>3633</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H77" s="9">
         <v>4711</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I77" s="9">
         <v>7310</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="10" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11">
         <v>22081</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="11">
+      <c r="F78" s="11">
+        <v>31508</v>
+      </c>
+      <c r="G78" s="11">
         <v>34923</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H78" s="11">
         <v>44934</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I78" s="11">
         <v>53201</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11">
+      <c r="D80" s="11"/>
+      <c r="E80" s="11">
         <v>21033210</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="s">
+      <c r="F80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="9">
-        <v>0</v>
-      </c>
-      <c r="H80" s="9">
-        <v>0</v>
-      </c>
-      <c r="I80" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="9">
+        <v>0</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="9">
-        <v>0</v>
-      </c>
-      <c r="H82" s="9">
-        <v>0</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="9">
+        <v>5079</v>
+      </c>
+      <c r="G83" s="9">
+        <v>0</v>
+      </c>
+      <c r="H83" s="9">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
@@ -2304,285 +2351,285 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6" t="s">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G88" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H88" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="I88" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="9">
-        <v>0</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
+      <c r="C90" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="9">
+        <v>0</v>
+      </c>
+      <c r="G90" s="9">
+        <v>0</v>
+      </c>
+      <c r="H90" s="9">
+        <v>0</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="11">
+      <c r="C91" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="11">
+        <v>-34905</v>
+      </c>
+      <c r="G91" s="11">
         <v>-48955</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H91" s="11">
         <v>-39216</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I91" s="11">
         <v>-41658</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="9">
+      <c r="C92" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="9">
+        <v>-289464</v>
+      </c>
+      <c r="G92" s="9">
         <v>-358580</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H92" s="9">
         <v>-653510</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I92" s="9">
         <v>-993079</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="11">
+      <c r="C93" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="11">
+        <v>-45271</v>
+      </c>
+      <c r="G93" s="11">
         <v>-78218</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H93" s="11">
         <v>-68255</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I93" s="11">
         <v>-27935</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="9">
+      <c r="C94" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="9">
+        <v>-278954</v>
+      </c>
+      <c r="G94" s="9">
         <v>-534648</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H94" s="9">
         <v>-568325</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I94" s="9">
         <v>-1361628</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="11">
+      <c r="C95" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="11">
+        <v>-681184</v>
+      </c>
+      <c r="G95" s="11">
         <v>-456585</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H95" s="11">
         <v>-751388</v>
       </c>
-      <c r="I94" s="11">
+      <c r="I95" s="11">
         <v>-1035439</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="8" t="s">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="9">
-        <v>0</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0</v>
-      </c>
-      <c r="I95" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
+      <c r="C96" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="9">
+        <v>0</v>
+      </c>
+      <c r="G96" s="9">
+        <v>0</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0</v>
+      </c>
+      <c r="I96" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="11">
-        <v>0</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="11">
+        <v>-18478</v>
+      </c>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="9">
+      <c r="C98" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="9">
         <v>-53693</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="14" t="s">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15">
-        <v>0</v>
-      </c>
-      <c r="F98" s="15">
-        <v>0</v>
-      </c>
-      <c r="G98" s="15">
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15">
+        <v>0</v>
+      </c>
+      <c r="F99" s="15">
+        <v>-1348256</v>
+      </c>
+      <c r="G99" s="15">
         <v>-1476986</v>
       </c>
-      <c r="H98" s="15">
+      <c r="H99" s="15">
         <v>-2080694</v>
       </c>
-      <c r="I98" s="15">
+      <c r="I99" s="15">
         <v>-3513432</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
@@ -2604,273 +2651,283 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B102" s="7" t="s">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6" t="s">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G103" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="H103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I103" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="9">
+      <c r="C105" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="9">
+        <v>-6219</v>
+      </c>
+      <c r="G105" s="9">
         <v>-511</v>
       </c>
-      <c r="H104" s="9">
+      <c r="H105" s="9">
         <v>-5585</v>
       </c>
-      <c r="I104" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="10" t="s">
+      <c r="I105" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="11">
+      <c r="C106" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="11">
+        <v>15350</v>
+      </c>
+      <c r="G106" s="11">
         <v>16890</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H106" s="11">
         <v>9398</v>
       </c>
-      <c r="I105" s="11">
+      <c r="I106" s="11">
         <v>9984</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="9">
+      <c r="C107" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="9">
+        <v>220499</v>
+      </c>
+      <c r="G107" s="9">
         <v>310015</v>
       </c>
-      <c r="H106" s="9">
+      <c r="H107" s="9">
         <v>711860</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I107" s="9">
         <v>552276</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="11">
+      <c r="C108" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="11">
+        <v>6875</v>
+      </c>
+      <c r="G108" s="11">
         <v>16241</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H108" s="11">
         <v>9366</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I108" s="11">
         <v>23289</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="8" t="s">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="9">
+      <c r="C109" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="9">
+        <v>115905</v>
+      </c>
+      <c r="G109" s="9">
         <v>204306</v>
       </c>
-      <c r="H108" s="9">
+      <c r="H109" s="9">
         <v>176594</v>
       </c>
-      <c r="I108" s="9">
+      <c r="I109" s="9">
         <v>847465</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="10" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="11">
+      <c r="C110" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="11">
+        <v>761286</v>
+      </c>
+      <c r="G110" s="11">
         <v>341095</v>
       </c>
-      <c r="H109" s="11">
+      <c r="H110" s="11">
         <v>701158</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I110" s="11">
         <v>625246</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="9">
+      <c r="C111" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="9">
+        <v>-382855</v>
+      </c>
+      <c r="G111" s="9">
         <v>-343536</v>
       </c>
-      <c r="H110" s="9">
+      <c r="H111" s="9">
         <v>-459027</v>
       </c>
-      <c r="I110" s="9">
+      <c r="I111" s="9">
         <v>-515603</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="10" t="s">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="11">
-        <v>0</v>
-      </c>
-      <c r="H111" s="11">
-        <v>0</v>
-      </c>
-      <c r="I111" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
+      <c r="C112" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="11">
+        <v>2961</v>
+      </c>
+      <c r="G112" s="11">
+        <v>0</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="9">
+      <c r="C113" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="9">
         <v>35180</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="14" t="s">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15">
-        <v>0</v>
-      </c>
-      <c r="F113" s="15">
-        <v>0</v>
-      </c>
-      <c r="G113" s="15">
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15">
+        <v>0</v>
+      </c>
+      <c r="F114" s="15">
+        <v>733802</v>
+      </c>
+      <c r="G114" s="15">
         <v>544500</v>
       </c>
-      <c r="H113" s="15">
+      <c r="H114" s="15">
         <v>1143764</v>
       </c>
-      <c r="I113" s="15">
+      <c r="I114" s="15">
         <v>1577837</v>
       </c>
     </row>

--- a/database/industries/darou/dejaber/product/yearly.xlsx
+++ b/database/industries/darou/dejaber/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E3463-7FB6-4731-8202-885DE6A78E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9FEBC9-F59A-4E3E-98EE-9B598574A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -127,7 +127,7 @@
     <t>نرخ فروش</t>
   </si>
   <si>
-    <t>ریال / ریال</t>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>تیوپ / ریال</t>
@@ -602,12 +602,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -617,7 +617,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -651,7 +651,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -685,7 +685,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -707,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -717,7 +717,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -731,17 +731,17 @@
       <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -750,22 +750,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>938880</v>
+        <v>2347080</v>
       </c>
       <c r="F11" s="11">
-        <v>2347080</v>
+        <v>2259120</v>
       </c>
       <c r="G11" s="11">
-        <v>2259120</v>
+        <v>3351162</v>
       </c>
       <c r="H11" s="11">
-        <v>3351162</v>
+        <v>1986480</v>
       </c>
       <c r="I11" s="11">
-        <v>1986480</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1820960</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -774,22 +774,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>4306281</v>
+        <v>5797365</v>
       </c>
       <c r="F12" s="9">
-        <v>5797365</v>
+        <v>5371381</v>
       </c>
       <c r="G12" s="9">
-        <v>5371381</v>
+        <v>4809992</v>
       </c>
       <c r="H12" s="9">
-        <v>4809992</v>
+        <v>5063542</v>
       </c>
       <c r="I12" s="9">
-        <v>5063542</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4472947</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -813,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -846,22 +846,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>3759417</v>
+        <v>1696265</v>
       </c>
       <c r="F15" s="11">
-        <v>1696265</v>
+        <v>2742777</v>
       </c>
       <c r="G15" s="11">
-        <v>2742777</v>
+        <v>1165009</v>
       </c>
       <c r="H15" s="11">
-        <v>1165009</v>
+        <v>783209</v>
       </c>
       <c r="I15" s="11">
-        <v>783209</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1457337</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -870,22 +870,22 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>129685580</v>
+        <v>131179465</v>
       </c>
       <c r="F16" s="9">
-        <v>131179465</v>
+        <v>199281000</v>
       </c>
       <c r="G16" s="9">
-        <v>199281000</v>
+        <v>166542208</v>
       </c>
       <c r="H16" s="9">
-        <v>166542208</v>
+        <v>302396786</v>
       </c>
       <c r="I16" s="9">
-        <v>302396786</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>358097144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -894,22 +894,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>67131770</v>
+        <v>45601003</v>
       </c>
       <c r="F17" s="11">
-        <v>45601003</v>
+        <v>22135791</v>
       </c>
       <c r="G17" s="11">
-        <v>22135791</v>
+        <v>33208893</v>
       </c>
       <c r="H17" s="11">
-        <v>33208893</v>
+        <v>32073517</v>
       </c>
       <c r="I17" s="11">
-        <v>32073517</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27919322</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -933,7 +933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -972,14 +972,14 @@
       <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>12</v>
+      <c r="H20" s="9">
+        <v>0</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1011,23 +1011,23 @@
         <v>11</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
+      <c r="E22" s="9">
+        <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
         <v>2352877</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>12</v>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4326274</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1044,36 +1044,36 @@
       <c r="G23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>12</v>
+      <c r="H23" s="11">
+        <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4326274</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>205821928</v>
+        <v>186621178</v>
       </c>
       <c r="F24" s="13">
-        <v>186621178</v>
+        <v>234142946</v>
       </c>
       <c r="G24" s="13">
-        <v>234142946</v>
+        <v>209077264</v>
       </c>
       <c r="H24" s="13">
-        <v>209077264</v>
+        <v>342303534</v>
       </c>
       <c r="I24" s="13">
-        <v>342303534</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>402420258</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1083,7 +1083,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1093,7 +1093,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1103,7 +1103,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1135,17 +1135,17 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -1157,7 +1157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>30</v>
       </c>
@@ -1168,20 +1168,20 @@
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>12</v>
+      <c r="F31" s="11">
+        <v>0</v>
       </c>
       <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
+      <c r="H31" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
@@ -1190,22 +1190,22 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>1159677</v>
+        <v>2370530</v>
       </c>
       <c r="F32" s="9">
-        <v>2370530</v>
+        <v>2258910</v>
       </c>
       <c r="G32" s="9">
-        <v>2258910</v>
+        <v>1524330</v>
       </c>
       <c r="H32" s="9">
-        <v>1524330</v>
+        <v>1102410</v>
       </c>
       <c r="I32" s="9">
-        <v>1102410</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1815887</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
@@ -1214,22 +1214,22 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>4101603</v>
+        <v>5542134</v>
       </c>
       <c r="F33" s="11">
-        <v>5542134</v>
+        <v>5951917</v>
       </c>
       <c r="G33" s="11">
-        <v>5951917</v>
+        <v>4759002</v>
       </c>
       <c r="H33" s="11">
-        <v>4759002</v>
+        <v>5117592</v>
       </c>
       <c r="I33" s="11">
-        <v>5117592</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4000876</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>3669083</v>
+        <v>1751923</v>
       </c>
       <c r="F36" s="9">
-        <v>1751923</v>
+        <v>2554533</v>
       </c>
       <c r="G36" s="9">
-        <v>2554533</v>
+        <v>1350833</v>
       </c>
       <c r="H36" s="9">
-        <v>1350833</v>
+        <v>782959</v>
       </c>
       <c r="I36" s="9">
-        <v>782959</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1363937</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>20</v>
       </c>
@@ -1310,22 +1310,22 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>143773502</v>
+        <v>127925645</v>
       </c>
       <c r="F37" s="11">
-        <v>127925645</v>
+        <v>203426820</v>
       </c>
       <c r="G37" s="11">
-        <v>203426820</v>
+        <v>158120730</v>
       </c>
       <c r="H37" s="11">
-        <v>158120730</v>
+        <v>302215674</v>
       </c>
       <c r="I37" s="11">
-        <v>302215674</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>336678510</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -1334,22 +1334,22 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>70965392</v>
+        <v>45780987</v>
       </c>
       <c r="F38" s="9">
-        <v>45780987</v>
+        <v>22841259</v>
       </c>
       <c r="G38" s="9">
-        <v>22841259</v>
+        <v>32326000</v>
       </c>
       <c r="H38" s="9">
-        <v>32326000</v>
+        <v>31215273</v>
       </c>
       <c r="I38" s="9">
-        <v>31215273</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26667957</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1381,8 +1381,8 @@
         <v>11</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9">
-        <v>542</v>
+      <c r="E40" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>12</v>
@@ -1397,14 +1397,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>12</v>
+      <c r="E41" s="11">
+        <v>0</v>
       </c>
       <c r="F41" s="11">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
@@ -1451,11 +1451,11 @@
         <v>11</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>12</v>
+      <c r="E43" s="11">
+        <v>4221305</v>
       </c>
       <c r="F43" s="11">
-        <v>4221305</v>
+        <v>0</v>
       </c>
       <c r="G43" s="11">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>27</v>
       </c>
@@ -1484,36 +1484,36 @@
       <c r="G44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>12</v>
+      <c r="H44" s="9">
+        <v>0</v>
       </c>
       <c r="I44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2176017</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>223669799</v>
+        <v>187592524</v>
       </c>
       <c r="F45" s="15">
-        <v>187592524</v>
+        <v>237033439</v>
       </c>
       <c r="G45" s="15">
-        <v>237033439</v>
+        <v>198080895</v>
       </c>
       <c r="H45" s="15">
-        <v>198080895</v>
+        <v>340433908</v>
       </c>
       <c r="I45" s="15">
-        <v>340433908</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>372703184</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1533,7 +1533,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1543,7 +1543,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>32</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1575,7 +1575,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
@@ -1583,23 +1583,23 @@
         <v>33</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>12</v>
+      <c r="E51" s="9">
+        <v>-6219</v>
       </c>
       <c r="F51" s="9">
-        <v>-6219</v>
+        <v>-511</v>
       </c>
       <c r="G51" s="9">
-        <v>-511</v>
-      </c>
-      <c r="H51" s="9">
         <v>-5585</v>
       </c>
+      <c r="H51" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I51" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>13</v>
       </c>
@@ -1608,22 +1608,22 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>16383</v>
+        <v>50255</v>
       </c>
       <c r="F52" s="11">
-        <v>50255</v>
+        <v>65845</v>
       </c>
       <c r="G52" s="11">
-        <v>65845</v>
+        <v>48614</v>
       </c>
       <c r="H52" s="11">
-        <v>48614</v>
+        <v>51642</v>
       </c>
       <c r="I52" s="11">
-        <v>51642</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116242</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
@@ -1632,22 +1632,22 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>326333</v>
+        <v>509963</v>
       </c>
       <c r="F53" s="9">
-        <v>509963</v>
+        <v>668595</v>
       </c>
       <c r="G53" s="9">
-        <v>668595</v>
+        <v>1365370</v>
       </c>
       <c r="H53" s="9">
-        <v>1365370</v>
+        <v>1545355</v>
       </c>
       <c r="I53" s="9">
-        <v>1545355</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1244236</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>18</v>
       </c>
@@ -1704,22 +1704,22 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>96408</v>
+        <v>52146</v>
       </c>
       <c r="F56" s="11">
-        <v>52146</v>
+        <v>94459</v>
       </c>
       <c r="G56" s="11">
-        <v>94459</v>
+        <v>77621</v>
       </c>
       <c r="H56" s="11">
-        <v>77621</v>
+        <v>51224</v>
       </c>
       <c r="I56" s="11">
-        <v>51224</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249447</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>20</v>
       </c>
@@ -1728,22 +1728,22 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>286526</v>
+        <v>394859</v>
       </c>
       <c r="F57" s="9">
-        <v>394859</v>
+        <v>738954</v>
       </c>
       <c r="G57" s="9">
-        <v>738954</v>
+        <v>744919</v>
       </c>
       <c r="H57" s="9">
-        <v>744919</v>
+        <v>2209093</v>
       </c>
       <c r="I57" s="9">
-        <v>2209093</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3107273</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>21</v>
       </c>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>1566996</v>
+        <v>1442470</v>
       </c>
       <c r="F58" s="11">
-        <v>1442470</v>
+        <v>797680</v>
       </c>
       <c r="G58" s="11">
-        <v>797680</v>
+        <v>1452546</v>
       </c>
       <c r="H58" s="11">
-        <v>1452546</v>
+        <v>1660685</v>
       </c>
       <c r="I58" s="11">
-        <v>1660685</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2498410</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>23</v>
       </c>
@@ -1799,8 +1799,8 @@
         <v>33</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11">
-        <v>11400</v>
+      <c r="E60" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>12</v>
@@ -1815,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -1823,23 +1823,23 @@
         <v>33</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>12</v>
+      <c r="E61" s="9">
+        <v>-382855</v>
       </c>
       <c r="F61" s="9">
-        <v>-382855</v>
+        <v>-343536</v>
       </c>
       <c r="G61" s="9">
-        <v>-343536</v>
+        <v>-459027</v>
       </c>
       <c r="H61" s="9">
-        <v>-459027</v>
+        <v>-515603</v>
       </c>
       <c r="I61" s="9">
-        <v>-515603</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>25</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>26</v>
       </c>
@@ -1871,11 +1871,11 @@
         <v>33</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>12</v>
+      <c r="E63" s="9">
+        <v>21439</v>
       </c>
       <c r="F63" s="9">
-        <v>21439</v>
+        <v>0</v>
       </c>
       <c r="G63" s="9">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>27</v>
       </c>
@@ -1904,36 +1904,36 @@
       <c r="G64" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>12</v>
+      <c r="H64" s="11">
+        <v>88873</v>
       </c>
       <c r="I64" s="11">
-        <v>88873</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>124373</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>2304046</v>
+        <v>2082058</v>
       </c>
       <c r="F65" s="13">
-        <v>2082058</v>
+        <v>2021486</v>
       </c>
       <c r="G65" s="13">
-        <v>2021486</v>
+        <v>3224458</v>
       </c>
       <c r="H65" s="13">
-        <v>3224458</v>
+        <v>5091269</v>
       </c>
       <c r="I65" s="13">
-        <v>5091269</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7339981</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1943,7 +1943,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1953,7 +1953,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1963,7 +1963,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>34</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1995,7 +1995,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>30</v>
       </c>
@@ -2003,8 +2003,8 @@
         <v>35</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>12</v>
+      <c r="E71" s="9">
+        <v>0</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -2012,14 +2012,14 @@
       <c r="G71" s="9">
         <v>0</v>
       </c>
-      <c r="H71" s="9">
-        <v>0</v>
+      <c r="H71" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>13</v>
       </c>
@@ -2028,22 +2028,22 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>14127</v>
+        <v>21200</v>
       </c>
       <c r="F72" s="11">
-        <v>21200</v>
+        <v>29149</v>
       </c>
       <c r="G72" s="11">
-        <v>29149</v>
+        <v>31892</v>
       </c>
       <c r="H72" s="11">
-        <v>31892</v>
+        <v>46845</v>
       </c>
       <c r="I72" s="11">
-        <v>46845</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64014</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>15</v>
       </c>
@@ -2052,22 +2052,22 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>79562</v>
+        <v>92016</v>
       </c>
       <c r="F73" s="9">
-        <v>92016</v>
+        <v>112333</v>
       </c>
       <c r="G73" s="9">
-        <v>112333</v>
+        <v>286903</v>
       </c>
       <c r="H73" s="9">
-        <v>286903</v>
+        <v>301969</v>
       </c>
       <c r="I73" s="9">
-        <v>301969</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>310991</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>16</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>17</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>18</v>
       </c>
@@ -2124,22 +2124,22 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>26276</v>
+        <v>29765</v>
       </c>
       <c r="F76" s="11">
-        <v>29765</v>
+        <v>36977</v>
       </c>
       <c r="G76" s="11">
-        <v>36977</v>
+        <v>57462</v>
       </c>
       <c r="H76" s="11">
-        <v>57462</v>
+        <v>65424</v>
       </c>
       <c r="I76" s="11">
-        <v>65424</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>182887</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>20</v>
       </c>
@@ -2148,22 +2148,22 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>1993</v>
+        <v>3087</v>
       </c>
       <c r="F77" s="9">
-        <v>3087</v>
+        <v>3633</v>
       </c>
       <c r="G77" s="9">
-        <v>3633</v>
+        <v>4711</v>
       </c>
       <c r="H77" s="9">
-        <v>4711</v>
+        <v>7310</v>
       </c>
       <c r="I77" s="9">
-        <v>7310</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9229</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>21</v>
       </c>
@@ -2172,22 +2172,22 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>22081</v>
+        <v>31508</v>
       </c>
       <c r="F78" s="11">
-        <v>31508</v>
+        <v>34923</v>
       </c>
       <c r="G78" s="11">
-        <v>34923</v>
+        <v>44934</v>
       </c>
       <c r="H78" s="11">
-        <v>44934</v>
+        <v>53201</v>
       </c>
       <c r="I78" s="11">
-        <v>53201</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>93686</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>22</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>23</v>
       </c>
@@ -2219,8 +2219,8 @@
         <v>37</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>21033210</v>
+      <c r="E80" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>12</v>
@@ -2235,16 +2235,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>12</v>
+      <c r="E81" s="9">
+        <v>0</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>25</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>26</v>
       </c>
@@ -2291,11 +2291,11 @@
         <v>37</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>12</v>
+      <c r="E83" s="9">
+        <v>5079</v>
       </c>
       <c r="F83" s="9">
-        <v>5079</v>
+        <v>0</v>
       </c>
       <c r="G83" s="9">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2324,14 +2324,14 @@
       <c r="G84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>12</v>
+      <c r="H84" s="11">
+        <v>0</v>
       </c>
       <c r="I84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57156</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2341,7 +2341,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2351,7 +2351,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2361,7 +2361,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>39</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2393,7 +2393,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>30</v>
       </c>
@@ -2401,8 +2401,8 @@
         <v>33</v>
       </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
-        <v>12</v>
+      <c r="E90" s="9">
+        <v>0</v>
       </c>
       <c r="F90" s="9">
         <v>0</v>
@@ -2410,14 +2410,14 @@
       <c r="G90" s="9">
         <v>0</v>
       </c>
-      <c r="H90" s="9">
-        <v>0</v>
+      <c r="H90" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>13</v>
       </c>
@@ -2425,23 +2425,23 @@
         <v>33</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>12</v>
+      <c r="E91" s="11">
+        <v>-34905</v>
       </c>
       <c r="F91" s="11">
-        <v>-34905</v>
+        <v>-48955</v>
       </c>
       <c r="G91" s="11">
-        <v>-48955</v>
+        <v>-39216</v>
       </c>
       <c r="H91" s="11">
-        <v>-39216</v>
+        <v>-41658</v>
       </c>
       <c r="I91" s="11">
-        <v>-41658</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-105081</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>15</v>
       </c>
@@ -2449,23 +2449,23 @@
         <v>33</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>12</v>
+      <c r="E92" s="9">
+        <v>-289464</v>
       </c>
       <c r="F92" s="9">
-        <v>-289464</v>
+        <v>-358580</v>
       </c>
       <c r="G92" s="9">
-        <v>-358580</v>
+        <v>-653510</v>
       </c>
       <c r="H92" s="9">
-        <v>-653510</v>
+        <v>-993079</v>
       </c>
       <c r="I92" s="9">
-        <v>-993079</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1168651</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>18</v>
       </c>
@@ -2473,23 +2473,23 @@
         <v>33</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>12</v>
+      <c r="E93" s="11">
+        <v>-45271</v>
       </c>
       <c r="F93" s="11">
-        <v>-45271</v>
+        <v>-78218</v>
       </c>
       <c r="G93" s="11">
-        <v>-78218</v>
+        <v>-68255</v>
       </c>
       <c r="H93" s="11">
-        <v>-68255</v>
+        <v>-27935</v>
       </c>
       <c r="I93" s="11">
-        <v>-27935</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-233522</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>20</v>
       </c>
@@ -2497,23 +2497,23 @@
         <v>33</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>12</v>
+      <c r="E94" s="9">
+        <v>-278954</v>
       </c>
       <c r="F94" s="9">
-        <v>-278954</v>
+        <v>-534648</v>
       </c>
       <c r="G94" s="9">
-        <v>-534648</v>
+        <v>-568325</v>
       </c>
       <c r="H94" s="9">
-        <v>-568325</v>
+        <v>-1361628</v>
       </c>
       <c r="I94" s="9">
-        <v>-1361628</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2420719</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>21</v>
       </c>
@@ -2521,23 +2521,23 @@
         <v>33</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>12</v>
+      <c r="E95" s="11">
+        <v>-681184</v>
       </c>
       <c r="F95" s="11">
-        <v>-681184</v>
+        <v>-456585</v>
       </c>
       <c r="G95" s="11">
-        <v>-456585</v>
+        <v>-751388</v>
       </c>
       <c r="H95" s="11">
-        <v>-751388</v>
+        <v>-1035439</v>
       </c>
       <c r="I95" s="11">
-        <v>-1035439</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1860541</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>24</v>
       </c>
@@ -2545,8 +2545,8 @@
         <v>33</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>12</v>
+      <c r="E96" s="9">
+        <v>0</v>
       </c>
       <c r="F96" s="9">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -2569,11 +2569,11 @@
         <v>33</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>12</v>
+      <c r="E97" s="11">
+        <v>-18478</v>
       </c>
       <c r="F97" s="11">
-        <v>-18478</v>
+        <v>0</v>
       </c>
       <c r="G97" s="11">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>27</v>
       </c>
@@ -2602,36 +2602,36 @@
       <c r="G98" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="9" t="s">
-        <v>12</v>
+      <c r="H98" s="9">
+        <v>-53693</v>
       </c>
       <c r="I98" s="9">
-        <v>-53693</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-113470</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15">
-        <v>0</v>
+        <v>-1348256</v>
       </c>
       <c r="F99" s="15">
-        <v>-1348256</v>
+        <v>-1476986</v>
       </c>
       <c r="G99" s="15">
-        <v>-1476986</v>
+        <v>-2080694</v>
       </c>
       <c r="H99" s="15">
-        <v>-2080694</v>
+        <v>-3513432</v>
       </c>
       <c r="I99" s="15">
-        <v>-3513432</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5901984</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2641,7 +2641,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2651,7 +2651,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2661,7 +2661,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>40</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>30</v>
       </c>
@@ -2701,23 +2701,23 @@
         <v>33</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>12</v>
+      <c r="E105" s="9">
+        <v>-6219</v>
       </c>
       <c r="F105" s="9">
-        <v>-6219</v>
+        <v>-511</v>
       </c>
       <c r="G105" s="9">
-        <v>-511</v>
-      </c>
-      <c r="H105" s="9">
         <v>-5585</v>
       </c>
+      <c r="H105" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I105" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>13</v>
       </c>
@@ -2725,23 +2725,23 @@
         <v>33</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>12</v>
+      <c r="E106" s="11">
+        <v>15350</v>
       </c>
       <c r="F106" s="11">
-        <v>15350</v>
+        <v>16890</v>
       </c>
       <c r="G106" s="11">
-        <v>16890</v>
+        <v>9398</v>
       </c>
       <c r="H106" s="11">
-        <v>9398</v>
+        <v>9984</v>
       </c>
       <c r="I106" s="11">
-        <v>9984</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11161</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>15</v>
       </c>
@@ -2749,23 +2749,23 @@
         <v>33</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>12</v>
+      <c r="E107" s="9">
+        <v>220499</v>
       </c>
       <c r="F107" s="9">
-        <v>220499</v>
+        <v>310015</v>
       </c>
       <c r="G107" s="9">
-        <v>310015</v>
+        <v>711860</v>
       </c>
       <c r="H107" s="9">
-        <v>711860</v>
+        <v>552276</v>
       </c>
       <c r="I107" s="9">
-        <v>552276</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>75585</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>18</v>
       </c>
@@ -2773,23 +2773,23 @@
         <v>33</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>12</v>
+      <c r="E108" s="11">
+        <v>6875</v>
       </c>
       <c r="F108" s="11">
-        <v>6875</v>
+        <v>16241</v>
       </c>
       <c r="G108" s="11">
-        <v>16241</v>
+        <v>9366</v>
       </c>
       <c r="H108" s="11">
-        <v>9366</v>
+        <v>23289</v>
       </c>
       <c r="I108" s="11">
-        <v>23289</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15925</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>20</v>
       </c>
@@ -2797,23 +2797,23 @@
         <v>33</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>12</v>
+      <c r="E109" s="9">
+        <v>115905</v>
       </c>
       <c r="F109" s="9">
-        <v>115905</v>
+        <v>204306</v>
       </c>
       <c r="G109" s="9">
-        <v>204306</v>
+        <v>176594</v>
       </c>
       <c r="H109" s="9">
-        <v>176594</v>
+        <v>847465</v>
       </c>
       <c r="I109" s="9">
-        <v>847465</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>686554</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>21</v>
       </c>
@@ -2821,23 +2821,23 @@
         <v>33</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>12</v>
+      <c r="E110" s="11">
+        <v>761286</v>
       </c>
       <c r="F110" s="11">
-        <v>761286</v>
+        <v>341095</v>
       </c>
       <c r="G110" s="11">
-        <v>341095</v>
+        <v>701158</v>
       </c>
       <c r="H110" s="11">
-        <v>701158</v>
+        <v>625246</v>
       </c>
       <c r="I110" s="11">
-        <v>625246</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>637869</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>24</v>
       </c>
@@ -2845,23 +2845,23 @@
         <v>33</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>12</v>
+      <c r="E111" s="9">
+        <v>-382855</v>
       </c>
       <c r="F111" s="9">
-        <v>-382855</v>
+        <v>-343536</v>
       </c>
       <c r="G111" s="9">
-        <v>-343536</v>
+        <v>-459027</v>
       </c>
       <c r="H111" s="9">
-        <v>-459027</v>
+        <v>-515603</v>
       </c>
       <c r="I111" s="9">
-        <v>-515603</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>26</v>
       </c>
@@ -2869,11 +2869,11 @@
         <v>33</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>12</v>
+      <c r="E112" s="11">
+        <v>2961</v>
       </c>
       <c r="F112" s="11">
-        <v>2961</v>
+        <v>0</v>
       </c>
       <c r="G112" s="11">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>27</v>
       </c>
@@ -2902,33 +2902,33 @@
       <c r="G113" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H113" s="9" t="s">
-        <v>12</v>
+      <c r="H113" s="9">
+        <v>35180</v>
       </c>
       <c r="I113" s="9">
-        <v>35180</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10903</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15">
-        <v>0</v>
+        <v>733802</v>
       </c>
       <c r="F114" s="15">
-        <v>733802</v>
+        <v>544500</v>
       </c>
       <c r="G114" s="15">
-        <v>544500</v>
+        <v>1143764</v>
       </c>
       <c r="H114" s="15">
-        <v>1143764</v>
+        <v>1577837</v>
       </c>
       <c r="I114" s="15">
-        <v>1577837</v>
+        <v>1437997</v>
       </c>
     </row>
   </sheetData>
